--- a/stats/Data Retrieval Protocol.xlsx
+++ b/stats/Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meir\Documents\DataScience\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26AE5C5-06A0-45A3-B318-A27F661961DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A456FB-FF2F-41A4-AF08-C3DAD7126FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="153">
   <si>
     <t>Feature name</t>
   </si>
@@ -482,17 +482,31 @@
   </si>
   <si>
     <t>ja'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># count </t>
+  </si>
+  <si>
+    <t>2 8 68 70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -533,6 +547,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -586,40 +605,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F631D19D-3705-47CA-B515-B92F7B59D9C8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5199ED36-4772-4495-8C2C-482BEA376F37}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{81FFB349-DAEB-4C34-804E-898430901CFE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,16 +966,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1024,6 +1051,9 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="16">
+        <v>7398</v>
+      </c>
       <c r="G2" t="s">
         <v>134</v>
       </c>
@@ -1059,6 +1089,9 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="16">
+        <v>740</v>
+      </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1094,11 +1127,14 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" s="15">
+        <v>44</v>
+      </c>
       <c r="G4" t="s">
         <v>138</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -1123,6 +1159,9 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="16">
+        <v>7372</v>
+      </c>
       <c r="G5" t="s">
         <v>134</v>
       </c>
@@ -1158,6 +1197,9 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
+      <c r="F6" s="17">
+        <v>4696</v>
+      </c>
       <c r="G6" t="s">
         <v>136</v>
       </c>
@@ -1168,7 +1210,7 @@
         <v>42958</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
@@ -1193,6 +1235,9 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="17">
+        <v>167</v>
+      </c>
       <c r="G7" t="s">
         <v>135</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>338</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
         <v>43</v>
@@ -1228,14 +1273,14 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
+      <c r="F8" s="17">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
         <v>139</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
@@ -1260,6 +1305,9 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
+      <c r="F9" s="17">
+        <v>2844</v>
+      </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
@@ -1295,6 +1343,9 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
+      <c r="F10" s="17">
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>137</v>
       </c>
@@ -1303,9 +1354,6 @@
       </c>
       <c r="J10">
         <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
       </c>
       <c r="L10" t="s">
         <v>43</v>
@@ -1330,6 +1378,9 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="17">
+        <v>2</v>
+      </c>
       <c r="G11" t="s">
         <v>137</v>
       </c>
@@ -1338,9 +1389,6 @@
       </c>
       <c r="J11">
         <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>43</v>
@@ -1365,6 +1413,9 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="17">
+        <v>2</v>
+      </c>
       <c r="G12" t="s">
         <v>137</v>
       </c>
@@ -1373,9 +1424,6 @@
       </c>
       <c r="J12">
         <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
       </c>
       <c r="L12" t="s">
         <v>43</v>
@@ -1400,6 +1448,9 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
+      <c r="F13" s="17">
+        <v>2</v>
+      </c>
       <c r="G13" t="s">
         <v>137</v>
       </c>
@@ -1408,9 +1459,6 @@
       </c>
       <c r="J13">
         <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
       </c>
       <c r="L13" t="s">
         <v>43</v>
@@ -1435,6 +1483,9 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="16">
+        <v>46</v>
+      </c>
       <c r="G14" t="s">
         <v>144</v>
       </c>
@@ -1470,6 +1521,9 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
+      <c r="F15" s="16">
+        <v>98</v>
+      </c>
       <c r="G15" t="s">
         <v>141</v>
       </c>
@@ -1480,7 +1534,7 @@
         <v>2017</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
         <v>43</v>
@@ -1505,6 +1559,9 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
+      <c r="F16" s="16">
+        <v>12</v>
+      </c>
       <c r="G16" t="s">
         <v>140</v>
       </c>
@@ -1515,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>43</v>
@@ -1540,6 +1597,9 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
       <c r="G17" t="s">
         <v>137</v>
       </c>
@@ -1548,9 +1608,6 @@
       </c>
       <c r="J17">
         <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>40</v>
       </c>
       <c r="L17" t="s">
         <v>43</v>
@@ -1575,6 +1632,9 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
+      <c r="F18" s="16">
+        <v>31</v>
+      </c>
       <c r="G18" t="s">
         <v>142</v>
       </c>
@@ -1585,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
         <v>43</v>
@@ -1594,7 +1654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -1610,6 +1670,9 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
+      <c r="F19" s="15">
+        <v>12</v>
+      </c>
       <c r="G19" t="s">
         <v>134</v>
       </c>
@@ -1620,7 +1683,7 @@
         <v>74205073</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>43</v>
@@ -1629,7 +1692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
@@ -1645,6 +1708,9 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
+      <c r="F20" s="15">
+        <v>3</v>
+      </c>
       <c r="G20" t="s">
         <v>144</v>
       </c>
@@ -1664,7 +1730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1680,6 +1746,9 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
+      <c r="F21" s="15">
+        <v>24</v>
+      </c>
       <c r="G21" t="s">
         <v>144</v>
       </c>
@@ -1690,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
         <v>43</v>
@@ -1699,7 +1768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
@@ -1714,6 +1783,9 @@
       </c>
       <c r="E22" t="s">
         <v>17</v>
+      </c>
+      <c r="F22" s="15">
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>144</v>
@@ -1750,6 +1822,9 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
@@ -1761,9 +1836,6 @@
       </c>
       <c r="J23">
         <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>40</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
@@ -1788,6 +1860,9 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
+      <c r="F24" s="16">
+        <v>2</v>
+      </c>
       <c r="G24" t="s">
         <v>137</v>
       </c>
@@ -1799,9 +1874,6 @@
       </c>
       <c r="J24">
         <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>40</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
@@ -1826,6 +1898,9 @@
       <c r="E25" t="s">
         <v>23</v>
       </c>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
       <c r="G25" t="s">
         <v>137</v>
       </c>
@@ -1837,9 +1912,6 @@
       </c>
       <c r="J25">
         <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
       </c>
       <c r="L25" t="s">
         <v>43</v>
@@ -1864,6 +1936,9 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
+      <c r="F26" s="16">
+        <v>2</v>
+      </c>
       <c r="G26" t="s">
         <v>137</v>
       </c>
@@ -1875,9 +1950,6 @@
       </c>
       <c r="J26">
         <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
       </c>
       <c r="L26" t="s">
         <v>43</v>
@@ -1902,6 +1974,9 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
       <c r="G27" t="s">
         <v>137</v>
       </c>
@@ -1914,9 +1989,6 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" t="s">
-        <v>40</v>
-      </c>
       <c r="L27" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +1996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>64</v>
       </c>
@@ -1940,6 +2012,9 @@
       <c r="E28" t="s">
         <v>17</v>
       </c>
+      <c r="F28" s="15">
+        <v>61</v>
+      </c>
       <c r="G28" t="s">
         <v>144</v>
       </c>
@@ -1950,7 +2025,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
@@ -1959,7 +2034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>65</v>
       </c>
@@ -1975,6 +2050,9 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
+      <c r="F29" s="15">
+        <v>17</v>
+      </c>
       <c r="G29" t="s">
         <v>144</v>
       </c>
@@ -1985,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L29" t="s">
         <v>43</v>
@@ -1994,7 +2072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
@@ -2010,6 +2088,9 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
+      <c r="F30" s="15">
+        <v>59</v>
+      </c>
       <c r="G30" t="s">
         <v>144</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
         <v>43</v>
@@ -2029,7 +2110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -2045,6 +2126,9 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
+      <c r="F31" s="15">
+        <v>18</v>
+      </c>
       <c r="G31" t="s">
         <v>144</v>
       </c>
@@ -2055,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L31" t="s">
         <v>43</v>
@@ -2064,7 +2148,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
@@ -2080,6 +2164,9 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
+      <c r="F32" s="15">
+        <v>53</v>
+      </c>
       <c r="G32" t="s">
         <v>144</v>
       </c>
@@ -2090,7 +2177,7 @@
         <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
         <v>43</v>
@@ -2099,7 +2186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>69</v>
       </c>
@@ -2115,6 +2202,9 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
+      <c r="F33" s="15">
+        <v>16</v>
+      </c>
       <c r="G33" t="s">
         <v>144</v>
       </c>
@@ -2125,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
         <v>43</v>
@@ -2150,6 +2240,9 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
       <c r="G34" t="s">
         <v>137</v>
       </c>
@@ -2158,9 +2251,6 @@
       </c>
       <c r="J34">
         <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>40</v>
       </c>
       <c r="L34" t="s">
         <v>43</v>
@@ -2185,6 +2275,9 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
+      <c r="F35" s="16">
+        <v>2</v>
+      </c>
       <c r="G35" t="s">
         <v>137</v>
       </c>
@@ -2193,9 +2286,6 @@
       </c>
       <c r="J35">
         <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>40</v>
       </c>
       <c r="L35" t="s">
         <v>43</v>
@@ -2220,6 +2310,9 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
+      <c r="F36" s="16">
+        <v>2</v>
+      </c>
       <c r="G36" t="s">
         <v>137</v>
       </c>
@@ -2228,9 +2321,6 @@
       </c>
       <c r="J36">
         <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>40</v>
       </c>
       <c r="L36" t="s">
         <v>43</v>
@@ -2255,6 +2345,9 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
+      <c r="F37" s="16">
+        <v>2</v>
+      </c>
       <c r="G37" t="s">
         <v>137</v>
       </c>
@@ -2263,9 +2356,6 @@
       </c>
       <c r="J37">
         <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>40</v>
       </c>
       <c r="L37" t="s">
         <v>43</v>
@@ -2290,6 +2380,9 @@
       <c r="E38" t="s">
         <v>17</v>
       </c>
+      <c r="F38" s="16">
+        <v>2</v>
+      </c>
       <c r="G38" t="s">
         <v>137</v>
       </c>
@@ -2298,9 +2391,6 @@
       </c>
       <c r="J38">
         <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>40</v>
       </c>
       <c r="L38" t="s">
         <v>43</v>
@@ -2325,6 +2415,9 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
       <c r="G39" t="s">
         <v>137</v>
       </c>
@@ -2334,9 +2427,6 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" t="s">
-        <v>40</v>
-      </c>
       <c r="L39" t="s">
         <v>43</v>
       </c>
@@ -2344,7 +2434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>76</v>
       </c>
@@ -2360,6 +2450,9 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
+      <c r="F40" s="15">
+        <v>1151</v>
+      </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>77</v>
       </c>
@@ -2395,6 +2488,9 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
+      <c r="F41" s="15">
+        <v>1264</v>
+      </c>
       <c r="G41" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>78</v>
       </c>
@@ -2430,6 +2526,9 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
+      <c r="F42" s="15">
+        <v>1340</v>
+      </c>
       <c r="G42" t="s">
         <v>20</v>
       </c>
@@ -2449,7 +2548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>79</v>
       </c>
@@ -2465,6 +2564,9 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
+      <c r="F43" s="15">
+        <v>30</v>
+      </c>
       <c r="G43" t="s">
         <v>144</v>
       </c>
@@ -2475,7 +2577,7 @@
         <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L43" t="s">
         <v>43</v>
@@ -2484,7 +2586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -2499,6 +2601,9 @@
       </c>
       <c r="E44" t="s">
         <v>17</v>
+      </c>
+      <c r="F44" s="15">
+        <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>144</v>
@@ -2535,6 +2640,9 @@
       <c r="E45" t="s">
         <v>17</v>
       </c>
+      <c r="F45" s="16">
+        <v>2</v>
+      </c>
       <c r="G45" t="s">
         <v>137</v>
       </c>
@@ -2543,9 +2651,6 @@
       </c>
       <c r="J45">
         <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>40</v>
       </c>
       <c r="L45" t="s">
         <v>43</v>
@@ -2570,6 +2675,9 @@
       <c r="E46" t="s">
         <v>17</v>
       </c>
+      <c r="F46" s="16">
+        <v>2</v>
+      </c>
       <c r="G46" t="s">
         <v>137</v>
       </c>
@@ -2578,9 +2686,6 @@
       </c>
       <c r="J46">
         <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>40</v>
       </c>
       <c r="L46" t="s">
         <v>43</v>
@@ -2605,6 +2710,9 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
+      <c r="F47" s="16">
+        <v>2</v>
+      </c>
       <c r="G47" t="s">
         <v>137</v>
       </c>
@@ -2613,9 +2721,6 @@
       </c>
       <c r="J47">
         <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>40</v>
       </c>
       <c r="L47" t="s">
         <v>43</v>
@@ -2640,6 +2745,9 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
+      <c r="F48" s="16">
+        <v>2</v>
+      </c>
       <c r="G48" t="s">
         <v>137</v>
       </c>
@@ -2648,9 +2756,6 @@
       </c>
       <c r="J48">
         <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>40</v>
       </c>
       <c r="L48" t="s">
         <v>43</v>
@@ -2675,6 +2780,9 @@
       <c r="E49" t="s">
         <v>17</v>
       </c>
+      <c r="F49" s="16">
+        <v>2</v>
+      </c>
       <c r="G49" t="s">
         <v>137</v>
       </c>
@@ -2683,9 +2791,6 @@
       </c>
       <c r="J49">
         <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>40</v>
       </c>
       <c r="L49" t="s">
         <v>43</v>
@@ -2710,6 +2815,9 @@
       <c r="E50" t="s">
         <v>17</v>
       </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
       <c r="G50" t="s">
         <v>137</v>
       </c>
@@ -2718,9 +2826,6 @@
       </c>
       <c r="J50">
         <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>40</v>
       </c>
       <c r="L50" t="s">
         <v>43</v>
@@ -2745,6 +2850,9 @@
       <c r="E51" t="s">
         <v>17</v>
       </c>
+      <c r="F51" s="16">
+        <v>2</v>
+      </c>
       <c r="G51" t="s">
         <v>137</v>
       </c>
@@ -2753,9 +2861,6 @@
       </c>
       <c r="J51">
         <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>40</v>
       </c>
       <c r="L51" t="s">
         <v>43</v>
@@ -2780,6 +2885,9 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
+      <c r="F52" s="16">
+        <v>2</v>
+      </c>
       <c r="G52" t="s">
         <v>137</v>
       </c>
@@ -2788,9 +2896,6 @@
       </c>
       <c r="J52">
         <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>40</v>
       </c>
       <c r="L52" t="s">
         <v>43</v>
@@ -2815,6 +2920,9 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
+      <c r="F53" s="16">
+        <v>2</v>
+      </c>
       <c r="G53" t="s">
         <v>137</v>
       </c>
@@ -2823,9 +2931,6 @@
       </c>
       <c r="J53">
         <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>40</v>
       </c>
       <c r="L53" t="s">
         <v>43</v>
@@ -2850,6 +2955,9 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
+      <c r="F54" s="16">
+        <v>2</v>
+      </c>
       <c r="G54" t="s">
         <v>137</v>
       </c>
@@ -2858,9 +2966,6 @@
       </c>
       <c r="J54">
         <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>40</v>
       </c>
       <c r="L54" t="s">
         <v>43</v>
@@ -2885,6 +2990,9 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
+      <c r="F55" s="16">
+        <v>2</v>
+      </c>
       <c r="G55" t="s">
         <v>137</v>
       </c>
@@ -2893,9 +3001,6 @@
       </c>
       <c r="J55">
         <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>40</v>
       </c>
       <c r="L55" t="s">
         <v>43</v>
@@ -2920,6 +3025,9 @@
       <c r="E56" t="s">
         <v>17</v>
       </c>
+      <c r="F56" s="16">
+        <v>2</v>
+      </c>
       <c r="G56" t="s">
         <v>137</v>
       </c>
@@ -2928,9 +3036,6 @@
       </c>
       <c r="J56">
         <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>40</v>
       </c>
       <c r="L56" t="s">
         <v>43</v>
@@ -2955,6 +3060,9 @@
       <c r="E57" t="s">
         <v>17</v>
       </c>
+      <c r="F57" s="16">
+        <v>2</v>
+      </c>
       <c r="G57" t="s">
         <v>137</v>
       </c>
@@ -2963,9 +3071,6 @@
       </c>
       <c r="J57">
         <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>40</v>
       </c>
       <c r="L57" t="s">
         <v>43</v>
@@ -2990,6 +3095,9 @@
       <c r="E58" t="s">
         <v>17</v>
       </c>
+      <c r="F58" s="16">
+        <v>2</v>
+      </c>
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -2998,9 +3106,6 @@
       </c>
       <c r="J58">
         <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>40</v>
       </c>
       <c r="L58" t="s">
         <v>43</v>
@@ -3025,6 +3130,9 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
+      <c r="F59" s="16">
+        <v>2</v>
+      </c>
       <c r="G59" t="s">
         <v>137</v>
       </c>
@@ -3033,9 +3141,6 @@
       </c>
       <c r="J59">
         <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>40</v>
       </c>
       <c r="L59" t="s">
         <v>43</v>
@@ -3060,6 +3165,9 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
+      <c r="F60" s="16">
+        <v>2</v>
+      </c>
       <c r="G60" t="s">
         <v>137</v>
       </c>
@@ -3068,9 +3176,6 @@
       </c>
       <c r="J60">
         <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>40</v>
       </c>
       <c r="L60" t="s">
         <v>43</v>
@@ -3095,6 +3200,9 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
+      <c r="F61" s="16">
+        <v>2</v>
+      </c>
       <c r="G61" t="s">
         <v>137</v>
       </c>
@@ -3103,9 +3211,6 @@
       </c>
       <c r="J61">
         <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>40</v>
       </c>
       <c r="L61" t="s">
         <v>43</v>
@@ -3130,6 +3235,9 @@
       <c r="E62" t="s">
         <v>17</v>
       </c>
+      <c r="F62" s="16">
+        <v>2</v>
+      </c>
       <c r="G62" t="s">
         <v>137</v>
       </c>
@@ -3138,9 +3246,6 @@
       </c>
       <c r="J62">
         <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>40</v>
       </c>
       <c r="L62" t="s">
         <v>43</v>
@@ -3165,6 +3270,9 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
+      <c r="F63" s="16">
+        <v>2</v>
+      </c>
       <c r="G63" t="s">
         <v>137</v>
       </c>
@@ -3173,9 +3281,6 @@
       </c>
       <c r="J63">
         <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>40</v>
       </c>
       <c r="L63" t="s">
         <v>43</v>
@@ -3192,7 +3297,7 @@
         <v>101</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -3200,8 +3305,11 @@
       <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G64" t="s">
-        <v>137</v>
+      <c r="F64" s="16">
+        <v>2</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3210,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L64" t="s">
         <v>43</v>
@@ -3227,7 +3335,7 @@
         <v>101</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -3235,8 +3343,11 @@
       <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F65" s="16">
+        <v>2</v>
+      </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3245,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s">
         <v>43</v>
@@ -3262,7 +3373,7 @@
         <v>101</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -3270,8 +3381,11 @@
       <c r="E66" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F66" s="16">
+        <v>2</v>
+      </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3280,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L66" t="s">
         <v>43</v>
@@ -3297,7 +3411,7 @@
         <v>101</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -3305,8 +3419,11 @@
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F67" s="16">
+        <v>2</v>
+      </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3315,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L67" t="s">
         <v>43</v>
@@ -3332,7 +3449,7 @@
         <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -3340,8 +3457,11 @@
       <c r="E68" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F68" s="16">
+        <v>2</v>
+      </c>
       <c r="G68" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3350,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s">
         <v>43</v>
@@ -3367,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -3375,8 +3495,11 @@
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F69" s="16">
+        <v>2</v>
+      </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3385,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L69" t="s">
         <v>43</v>
@@ -3402,7 +3525,7 @@
         <v>101</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -3410,8 +3533,11 @@
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F70" s="16">
+        <v>2</v>
+      </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3420,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
         <v>43</v>
@@ -3437,7 +3563,7 @@
         <v>101</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -3445,8 +3571,11 @@
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F71" s="16">
+        <v>2</v>
+      </c>
       <c r="G71" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3455,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L71" t="s">
         <v>43</v>
@@ -3472,7 +3601,7 @@
         <v>101</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -3480,8 +3609,11 @@
       <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F72" s="16">
+        <v>2</v>
+      </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3490,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L72" t="s">
         <v>43</v>
@@ -3507,7 +3639,7 @@
         <v>101</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -3515,17 +3647,17 @@
       <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F73" s="16">
+        <v>2</v>
+      </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>40</v>
       </c>
       <c r="L73" t="s">
         <v>43</v>
@@ -3542,7 +3674,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -3550,17 +3682,17 @@
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F74" s="16">
+        <v>2</v>
+      </c>
       <c r="G74" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
         <v>1</v>
-      </c>
-      <c r="K74" t="s">
-        <v>40</v>
       </c>
       <c r="L74" t="s">
         <v>43</v>
@@ -3577,7 +3709,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -3585,17 +3717,17 @@
       <c r="E75" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F75" s="16">
+        <v>2</v>
+      </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
         <v>1</v>
-      </c>
-      <c r="K75" t="s">
-        <v>40</v>
       </c>
       <c r="L75" t="s">
         <v>43</v>
@@ -3612,7 +3744,7 @@
         <v>101</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -3620,17 +3752,17 @@
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F76" s="16">
+        <v>2</v>
+      </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
-      </c>
-      <c r="K76" t="s">
-        <v>40</v>
       </c>
       <c r="L76" t="s">
         <v>43</v>
@@ -3647,7 +3779,7 @@
         <v>101</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -3655,17 +3787,17 @@
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F77" s="16">
+        <v>2</v>
+      </c>
       <c r="G77" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
         <v>1</v>
-      </c>
-      <c r="K77" t="s">
-        <v>40</v>
       </c>
       <c r="L77" t="s">
         <v>43</v>
@@ -3682,7 +3814,7 @@
         <v>101</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -3690,17 +3822,17 @@
       <c r="E78" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F78" s="16">
+        <v>2</v>
+      </c>
       <c r="G78" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>40</v>
       </c>
       <c r="L78" t="s">
         <v>43</v>
@@ -3717,7 +3849,7 @@
         <v>101</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -3725,17 +3857,17 @@
       <c r="E79" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F79" s="16">
+        <v>2</v>
+      </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
-      </c>
-      <c r="K79" t="s">
-        <v>40</v>
       </c>
       <c r="L79" t="s">
         <v>43</v>
@@ -3752,7 +3884,7 @@
         <v>101</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -3760,17 +3892,17 @@
       <c r="E80" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F80" s="16">
+        <v>2</v>
+      </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
         <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>40</v>
       </c>
       <c r="L80" t="s">
         <v>43</v>
@@ -3787,7 +3919,7 @@
         <v>101</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
@@ -3795,17 +3927,17 @@
       <c r="E81" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F81" s="16">
+        <v>2</v>
+      </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>40</v>
       </c>
       <c r="L81" t="s">
         <v>43</v>
@@ -3822,7 +3954,7 @@
         <v>101</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -3830,17 +3962,17 @@
       <c r="E82" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F82" s="16">
+        <v>2</v>
+      </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
         <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>40</v>
       </c>
       <c r="L82" t="s">
         <v>43</v>
@@ -3857,7 +3989,7 @@
         <v>101</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -3865,17 +3997,17 @@
       <c r="E83" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F83" s="16">
+        <v>2</v>
+      </c>
       <c r="G83" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
         <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>40</v>
       </c>
       <c r="L83" t="s">
         <v>43</v>
@@ -3892,7 +4024,7 @@
         <v>101</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
@@ -3900,17 +4032,17 @@
       <c r="E84" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F84" s="16">
+        <v>2</v>
+      </c>
       <c r="G84" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
         <v>1</v>
-      </c>
-      <c r="K84" t="s">
-        <v>40</v>
       </c>
       <c r="L84" t="s">
         <v>43</v>
@@ -3927,7 +4059,7 @@
         <v>101</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
@@ -3935,17 +4067,17 @@
       <c r="E85" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F85" s="16">
+        <v>2</v>
+      </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
         <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>40</v>
       </c>
       <c r="L85" t="s">
         <v>43</v>
@@ -3962,7 +4094,9 @@
     </row>
     <row r="87" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="N87" s="7"/>
     </row>
@@ -9433,7 +9567,7 @@
       <c r="N998" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -9467,7 +9601,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E998</xm:sqref>
+          <xm:sqref>E2:E998 F6:F13 F86:F998</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/stats/Data Retrieval Protocol.xlsx
+++ b/stats/Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meir\Documents\DataScience\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A456FB-FF2F-41A4-AF08-C3DAD7126FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B193366-E0D8-42AE-B43A-4669D5FCE3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,11 +494,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -605,49 +613,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F631D19D-3705-47CA-B515-B92F7B59D9C8}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5199ED36-4772-4495-8C2C-482BEA376F37}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{81FFB349-DAEB-4C34-804E-898430901CFE}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{5A3AB964-0384-4DCE-864A-C1B3EE287E52}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{6DBE18C1-8A2D-4B52-9D0D-DF7A3DF630FB}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{210475DA-9797-47BA-A969-98DB06E5C6CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,8 +980,8 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E66" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1105,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
         <v>18</v>
@@ -1137,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -1175,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -1213,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
@@ -1251,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -1283,7 +1298,7 @@
         <v>145</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
         <v>45</v>
@@ -1321,7 +1336,7 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
         <v>39</v>
@@ -1356,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
         <v>46</v>
@@ -1391,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
         <v>47</v>
@@ -1426,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
         <v>48</v>
@@ -1461,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>49</v>
@@ -1499,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>50</v>
@@ -1537,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>51</v>
@@ -1575,7 +1590,7 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>52</v>
@@ -1610,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>53</v>
@@ -1648,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>54</v>
@@ -1686,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>55</v>
@@ -1724,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>56</v>
@@ -1762,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>57</v>
@@ -1800,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>58</v>
@@ -1838,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>59</v>
@@ -1876,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>60</v>
@@ -1914,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>61</v>
@@ -1952,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>62</v>
@@ -1990,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>63</v>
@@ -2028,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>64</v>
@@ -2066,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>65</v>
@@ -2104,7 +2119,7 @@
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>66</v>
@@ -2142,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>67</v>
@@ -2180,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>68</v>
@@ -2218,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>69</v>
@@ -2253,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>70</v>
@@ -2288,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>71</v>
@@ -2323,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>72</v>
@@ -2358,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>73</v>
@@ -2393,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>74</v>
@@ -2428,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>75</v>
@@ -2466,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>76</v>
@@ -2504,7 +2519,7 @@
         <v>24</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>77</v>
@@ -2542,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>78</v>
@@ -2580,7 +2595,7 @@
         <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>79</v>
@@ -2618,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="L44" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>80</v>
@@ -2653,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>81</v>
@@ -2688,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>82</v>
@@ -2723,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>83</v>
@@ -2758,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>84</v>
@@ -2793,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>85</v>
@@ -2828,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>86</v>
@@ -2863,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>87</v>
@@ -2898,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N52" s="6" t="s">
         <v>88</v>
@@ -2933,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>89</v>
@@ -2968,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>90</v>
@@ -3003,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>91</v>
@@ -3038,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>92</v>
@@ -3073,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>93</v>
@@ -3108,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>94</v>
@@ -3143,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>95</v>
@@ -3178,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>96</v>
@@ -3213,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>97</v>
@@ -3248,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>98</v>
@@ -3283,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N63" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>100</v>
       </c>
@@ -3305,8 +3320,8 @@
       <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="16">
-        <v>2</v>
+      <c r="F64" s="18">
+        <v>34</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>151</v>
@@ -3315,19 +3330,19 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K64" t="s">
         <v>11</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>102</v>
       </c>
@@ -3343,8 +3358,8 @@
       <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="16">
-        <v>2</v>
+      <c r="F65" s="18">
+        <v>23</v>
       </c>
       <c r="G65" t="s">
         <v>144</v>
@@ -3353,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K65" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>103</v>
       </c>
@@ -3381,8 +3396,8 @@
       <c r="E66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="16">
-        <v>2</v>
+      <c r="F66" s="18">
+        <v>50</v>
       </c>
       <c r="G66" t="s">
         <v>144</v>
@@ -3391,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="K66" t="s">
         <v>11</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>104</v>
       </c>
@@ -3419,8 +3434,8 @@
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="16">
-        <v>2</v>
+      <c r="F67" s="18">
+        <v>27</v>
       </c>
       <c r="G67" t="s">
         <v>144</v>
@@ -3429,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
         <v>11</v>
       </c>
       <c r="L67" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>105</v>
       </c>
@@ -3457,8 +3472,8 @@
       <c r="E68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="16">
-        <v>2</v>
+      <c r="F68" s="18">
+        <v>23</v>
       </c>
       <c r="G68" t="s">
         <v>144</v>
@@ -3467,19 +3482,19 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K68" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>106</v>
       </c>
@@ -3495,8 +3510,8 @@
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="16">
-        <v>2</v>
+      <c r="F69" s="18">
+        <v>16</v>
       </c>
       <c r="G69" t="s">
         <v>144</v>
@@ -3505,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
         <v>11</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>107</v>
       </c>
@@ -3533,8 +3548,8 @@
       <c r="E70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="16">
-        <v>2</v>
+      <c r="F70" s="18">
+        <v>13</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
@@ -3543,19 +3558,19 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>108</v>
       </c>
@@ -3571,8 +3586,8 @@
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="16">
-        <v>2</v>
+      <c r="F71" s="18">
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>144</v>
@@ -3581,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K71" t="s">
         <v>11</v>
       </c>
       <c r="L71" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>109</v>
       </c>
@@ -3609,8 +3624,8 @@
       <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="16">
-        <v>2</v>
+      <c r="F72" s="18">
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>144</v>
@@ -3619,19 +3634,19 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="K72" t="s">
         <v>11</v>
       </c>
       <c r="L72" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>110</v>
       </c>
@@ -3647,8 +3662,8 @@
       <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="16">
-        <v>2</v>
+      <c r="F73" s="18">
+        <v>45</v>
       </c>
       <c r="G73" t="s">
         <v>144</v>
@@ -3657,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>111</v>
       </c>
@@ -3682,8 +3697,8 @@
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="16">
-        <v>2</v>
+      <c r="F74" s="18">
+        <v>20</v>
       </c>
       <c r="G74" t="s">
         <v>144</v>
@@ -3692,16 +3707,16 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>112</v>
       </c>
@@ -3717,8 +3732,8 @@
       <c r="E75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="16">
-        <v>2</v>
+      <c r="F75" s="18">
+        <v>8</v>
       </c>
       <c r="G75" t="s">
         <v>144</v>
@@ -3727,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>113</v>
       </c>
@@ -3752,8 +3767,8 @@
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="16">
-        <v>2</v>
+      <c r="F76" s="18">
+        <v>4</v>
       </c>
       <c r="G76" t="s">
         <v>144</v>
@@ -3762,16 +3777,16 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3787,8 +3802,8 @@
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="16">
-        <v>2</v>
+      <c r="F77" s="18">
+        <v>8</v>
       </c>
       <c r="G77" t="s">
         <v>144</v>
@@ -3797,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N77" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>115</v>
       </c>
@@ -3822,8 +3837,8 @@
       <c r="E78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="16">
-        <v>2</v>
+      <c r="F78" s="18">
+        <v>7</v>
       </c>
       <c r="G78" t="s">
         <v>144</v>
@@ -3832,16 +3847,16 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>116</v>
       </c>
@@ -3857,8 +3872,8 @@
       <c r="E79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="16">
-        <v>2</v>
+      <c r="F79" s="18">
+        <v>5</v>
       </c>
       <c r="G79" t="s">
         <v>144</v>
@@ -3867,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L79" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>117</v>
       </c>
@@ -3892,8 +3907,8 @@
       <c r="E80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="16">
-        <v>2</v>
+      <c r="F80" s="18">
+        <v>5</v>
       </c>
       <c r="G80" t="s">
         <v>144</v>
@@ -3902,16 +3917,16 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L80" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>118</v>
       </c>
@@ -3927,7 +3942,7 @@
       <c r="E81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="18">
         <v>2</v>
       </c>
       <c r="G81" t="s">
@@ -3940,13 +3955,13 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N81" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>119</v>
       </c>
@@ -3962,8 +3977,8 @@
       <c r="E82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="16">
-        <v>2</v>
+      <c r="F82" s="18">
+        <v>12</v>
       </c>
       <c r="G82" t="s">
         <v>144</v>
@@ -3972,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N82" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>120</v>
       </c>
@@ -3997,8 +4012,8 @@
       <c r="E83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="16">
-        <v>2</v>
+      <c r="F83" s="18">
+        <v>6</v>
       </c>
       <c r="G83" t="s">
         <v>144</v>
@@ -4007,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L83" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N83" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>121</v>
       </c>
@@ -4032,8 +4047,8 @@
       <c r="E84" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="16">
-        <v>2</v>
+      <c r="F84" s="18">
+        <v>3</v>
       </c>
       <c r="G84" t="s">
         <v>144</v>
@@ -4042,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N84" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>41</v>
       </c>
@@ -4067,8 +4082,8 @@
       <c r="E85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="16">
-        <v>2</v>
+      <c r="F85" s="18">
+        <v>6</v>
       </c>
       <c r="G85" t="s">
         <v>144</v>
@@ -4077,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L85" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>41</v>
@@ -9567,7 +9582,7 @@
       <c r="N998" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
